--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-56/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-56/curvature_data.xlsx
@@ -379,44 +379,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>57437.495211</v>
+        <v>57415.69521</v>
       </c>
       <c r="B2">
-        <v>-0.0003062273</v>
+        <v>-1.1907250827e-05</v>
       </c>
       <c r="C2">
-        <v>-0.0003430511</v>
+        <v>-1.4976236982e-05</v>
       </c>
       <c r="D2">
-        <v>-0.0001205773</v>
+        <v>-2.4067979442e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>57415.69521</v>
+        <v>57427.29521</v>
       </c>
       <c r="B3">
-        <v>-1.1907250827e-05</v>
+        <v>-0.00010427949131</v>
       </c>
       <c r="C3">
-        <v>-1.4976236982e-05</v>
+        <v>-0.00012054138869</v>
       </c>
       <c r="D3">
-        <v>-2.4067979442e-05</v>
+        <v>-8.2727889439e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>57460.095212</v>
+        <v>57437.495211</v>
       </c>
       <c r="B4">
-        <v>-0.0002662474</v>
+        <v>-0.0003062273</v>
       </c>
       <c r="C4">
-        <v>-0.0003247927</v>
+        <v>-0.0003430511</v>
       </c>
       <c r="D4">
-        <v>-0.0001322491</v>
+        <v>-0.0001205773</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -435,30 +435,30 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>57472.959212</v>
+        <v>57460.095212</v>
       </c>
       <c r="B6">
-        <v>-0.00015449981507</v>
+        <v>-0.0002662474</v>
       </c>
       <c r="C6">
-        <v>-0.00012471267788</v>
+        <v>-0.0003247927</v>
       </c>
       <c r="D6">
-        <v>-8.273931469100001e-05</v>
+        <v>-0.0001322491</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>57427.29521</v>
+        <v>57472.959212</v>
       </c>
       <c r="B7">
-        <v>-0.00010427949131</v>
+        <v>-0.00015449981507</v>
       </c>
       <c r="C7">
-        <v>-0.00012054138869</v>
+        <v>-0.00012471267788</v>
       </c>
       <c r="D7">
-        <v>-8.2727889439e-05</v>
+        <v>-8.273931469100001e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
